--- a/Chart/Chart.xlsx
+++ b/Chart/Chart.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AluIC\Chart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF412285-D87F-44DE-93CA-C22EC6CD08A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Pressure</t>
   </si>
@@ -33,13 +39,7 @@
     <t>Single down</t>
   </si>
   <si>
-    <t>kein</t>
-  </si>
-  <si>
     <t>Single up</t>
-  </si>
-  <si>
-    <t>3 Drops</t>
   </si>
   <si>
     <t>us\mBar</t>
@@ -50,12 +50,51 @@
   <si>
     <t>Single Satellite up</t>
   </si>
+  <si>
+    <t>Speed</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Diameter1</t>
+  </si>
+  <si>
+    <t>Diameter2</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>t2</t>
+  </si>
+  <si>
+    <t>3mm</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>chaos( 3 droplets or more)</t>
+  </si>
+  <si>
+    <t>Not usable</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,6 +113,14 @@
     <font>
       <b/>
       <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -100,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -115,9 +162,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -130,6 +187,1303 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Nozzle Pressure vs Nozzle Open Time </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Excessive Satellite Occurance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1050</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>775</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>525</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C161-4C23-9B5B-70D72CAED019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Single Satellite Occurance Pressure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>425</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C161-4C23-9B5B-70D72CAED019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Optimum Pressure</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-C161-4C23-9B5B-70D72CAED019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Minimum Pressure for Reliable Droplets</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>735</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>375</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C161-4C23-9B5B-70D72CAED019}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="415484376"/>
+        <c:axId val="415485360"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="415484376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="700"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415485360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:minorUnit val="100"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="415485360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415484376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>20669</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28495</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>263611</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38551</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D12291-B941-4096-8596-D46AD3AB2EC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,28 +1775,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -455,259 +1809,602 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="N1" s="6">
+        <v>116</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>3</v>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
+        <v>800</v>
+      </c>
+      <c r="C3">
+        <v>1400</v>
+      </c>
+      <c r="D3">
+        <f>(C3+E3)/2</f>
+        <v>1350</v>
+      </c>
+      <c r="E3">
+        <v>1300</v>
+      </c>
+      <c r="F3">
+        <v>840</v>
+      </c>
+      <c r="G3">
+        <f>(H3+F3)/2</f>
+        <v>835</v>
+      </c>
+      <c r="H3">
+        <v>830</v>
+      </c>
+      <c r="I3">
+        <f>(H3+J3)/2</f>
+        <v>785</v>
+      </c>
+      <c r="J3">
+        <v>740</v>
+      </c>
+      <c r="K3">
+        <f>(J3+L3)/2</f>
+        <v>735</v>
+      </c>
+      <c r="L3">
+        <v>730</v>
+      </c>
+      <c r="N3">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>29</v>
+      </c>
+      <c r="P3">
+        <v>351</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>114</v>
+      </c>
+      <c r="R3">
+        <v>502</v>
+      </c>
+      <c r="S3">
+        <v>118.8</v>
+      </c>
+      <c r="T3">
+        <f>3*(R3-P3)/((S3-Q3)*$N$1)</f>
+        <v>0.81357758620689691</v>
+      </c>
+      <c r="U3">
+        <f>(4/3)*((N3+O3)/(4*$N$1))^3*1000</f>
+        <v>2.6041666666666665</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>1100</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D10" si="0">(C4+E4)/2</f>
+        <v>1050</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>800</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G10" si="1">(H4+F4)/2</f>
+        <v>795</v>
+      </c>
+      <c r="H4">
+        <v>790</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I10" si="2">(H4+J4)/2</f>
+        <v>730</v>
+      </c>
+      <c r="J4">
+        <v>670</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K10" si="3">(J4+L4)/2</f>
+        <v>665</v>
+      </c>
+      <c r="L4">
+        <v>660</v>
+      </c>
+      <c r="N4">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>29</v>
+      </c>
+      <c r="P4">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>543.4</v>
+      </c>
+      <c r="R4">
+        <v>218</v>
+      </c>
+      <c r="S4">
+        <v>548.4</v>
+      </c>
+      <c r="T4">
+        <f>3*(R4-P4)/((S4-Q4)*$N$1)</f>
+        <v>0.6827586206896552</v>
+      </c>
+      <c r="U4">
+        <f>(4/3)*((N4+O4)/(4*$N$1))^3*1000</f>
+        <v>2.6041666666666665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1200</v>
+      </c>
+      <c r="C5">
+        <v>1000</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="E5">
+        <v>900</v>
+      </c>
+      <c r="F5">
         <v>700</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>695</v>
+      </c>
+      <c r="H5">
+        <v>690</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="2"/>
+        <v>635</v>
+      </c>
+      <c r="J5">
+        <v>580</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="3"/>
+        <v>575</v>
+      </c>
+      <c r="L5">
+        <v>570</v>
+      </c>
+      <c r="N5">
+        <v>29</v>
+      </c>
+      <c r="O5">
+        <v>28</v>
+      </c>
+      <c r="P5">
+        <v>36</v>
+      </c>
+      <c r="Q5" s="7">
+        <v>126.2</v>
+      </c>
+      <c r="R5">
+        <v>118</v>
+      </c>
+      <c r="S5">
+        <v>128</v>
+      </c>
+      <c r="T5">
+        <f>3*(R5-P5)/((S5-Q5)*$N$1)</f>
+        <v>1.1781609195402318</v>
+      </c>
+      <c r="U5">
+        <f>(4/3)*((N5+O5)/(4*$N$1))^3*1000</f>
+        <v>2.4717774278363196</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>1400</v>
+      </c>
+      <c r="C6">
+        <v>900</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>875</v>
+      </c>
+      <c r="E6">
+        <v>850</v>
+      </c>
+      <c r="F6">
+        <v>630</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="H6">
+        <v>620</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>580</v>
+      </c>
+      <c r="J6">
+        <v>540</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>535</v>
+      </c>
+      <c r="L6">
+        <v>530</v>
+      </c>
+      <c r="N6">
+        <v>29</v>
+      </c>
+      <c r="O6">
+        <v>29</v>
+      </c>
+      <c r="P6">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>125.8</v>
+      </c>
+      <c r="R6">
+        <v>302</v>
+      </c>
+      <c r="S6">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="T6">
+        <f>3*(R6-P6)/((S6-Q6)*$N$1)</f>
+        <v>1.3007099391480763</v>
+      </c>
+      <c r="U6">
+        <f>(4/3)*((N6+O6)/(4*$N$1))^3*1000</f>
+        <v>2.6041666666666665</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C7">
         <v>800</v>
       </c>
-      <c r="C4">
-        <v>1600</v>
-      </c>
-      <c r="D4">
-        <v>1500</v>
-      </c>
-      <c r="E4">
-        <v>740</v>
-      </c>
-      <c r="F4">
-        <v>730</v>
-      </c>
-      <c r="G4">
-        <v>680</v>
-      </c>
-      <c r="H4">
-        <v>670</v>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>775</v>
+      </c>
+      <c r="E7">
+        <v>750</v>
+      </c>
+      <c r="F7">
+        <v>580</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>575</v>
+      </c>
+      <c r="H7">
+        <v>570</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="2"/>
+        <v>535</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>495</v>
+      </c>
+      <c r="L7">
+        <v>490</v>
+      </c>
+      <c r="N7">
+        <v>28</v>
+      </c>
+      <c r="O7">
+        <v>29</v>
+      </c>
+      <c r="P7">
+        <v>200</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>136.19999999999999</v>
+      </c>
+      <c r="R7">
+        <v>634</v>
+      </c>
+      <c r="S7">
+        <v>146.80000000000001</v>
+      </c>
+      <c r="T7">
+        <f>3*(R7-P7)/((S7-Q7)*$N$1)</f>
+        <v>1.0588809368900434</v>
+      </c>
+      <c r="U7">
+        <f>(4/3)*((N7+O7)/(4*$N$1))^3*1000</f>
+        <v>2.4717774278363196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="C6">
-        <v>1100</v>
-      </c>
-      <c r="D6">
-        <v>1000</v>
-      </c>
-      <c r="E6">
-        <v>800</v>
-      </c>
-      <c r="F6">
-        <v>790</v>
-      </c>
-      <c r="G6">
-        <v>710</v>
-      </c>
-      <c r="H6">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>1800</v>
+      </c>
+      <c r="C8">
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1200</v>
-      </c>
-      <c r="C8">
-        <v>900</v>
-      </c>
       <c r="D8">
-        <v>850</v>
+        <f t="shared" si="0"/>
+        <v>675</v>
       </c>
       <c r="E8">
         <v>650</v>
       </c>
       <c r="F8">
-        <v>640</v>
+        <v>530</v>
       </c>
       <c r="G8">
-        <v>580</v>
+        <f t="shared" si="1"/>
+        <v>525</v>
       </c>
       <c r="H8">
-        <v>570</v>
+        <v>520</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+      <c r="J8">
+        <v>460</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>455</v>
+      </c>
+      <c r="L8">
+        <v>450</v>
+      </c>
+      <c r="N8">
+        <v>28</v>
+      </c>
+      <c r="O8">
+        <v>27</v>
+      </c>
+      <c r="P8">
+        <v>217</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>189</v>
+      </c>
+      <c r="R8">
+        <v>519</v>
+      </c>
+      <c r="S8">
+        <v>196.8</v>
+      </c>
+      <c r="T8">
+        <f>3*(R8-P8)/((S8-Q8)*$N$1)</f>
+        <v>1.0013262599469481</v>
+      </c>
+      <c r="U8">
+        <f>(4/3)*((N8+O8)/(4*$N$1))^3*1000</f>
+        <v>2.2206129257383793</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
-        <v>1300</v>
+        <v>2000</v>
+      </c>
+      <c r="C9">
+        <v>650</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E9">
+        <v>600</v>
+      </c>
+      <c r="F9">
+        <v>470</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="H9">
+        <v>460</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>395</v>
+      </c>
+      <c r="L9">
+        <v>390</v>
+      </c>
+      <c r="N9">
+        <v>29</v>
+      </c>
+      <c r="O9">
+        <v>28</v>
+      </c>
+      <c r="P9">
+        <v>169</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>280.2</v>
+      </c>
+      <c r="R9">
+        <v>664</v>
+      </c>
+      <c r="S9">
+        <v>291</v>
+      </c>
+      <c r="T9">
+        <f>3*(R9-P9)/((S9-Q9)*$N$1)</f>
+        <v>1.1853448275862057</v>
+      </c>
+      <c r="U9">
+        <f>(4/3)*((N9+O9)/(4*$N$1))^3*1000</f>
+        <v>2.4717774278363196</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <v>1400</v>
+        <v>2200</v>
       </c>
       <c r="C10">
-        <v>900</v>
+        <v>550</v>
       </c>
       <c r="D10">
-        <v>850</v>
+        <f t="shared" si="0"/>
+        <v>525</v>
       </c>
       <c r="E10">
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="F10">
-        <v>620</v>
+        <v>430</v>
       </c>
       <c r="G10">
-        <v>540</v>
+        <f t="shared" si="1"/>
+        <v>425</v>
       </c>
       <c r="H10">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C12">
-        <v>800</v>
-      </c>
-      <c r="D12">
-        <v>750</v>
-      </c>
-      <c r="E12">
-        <v>580</v>
-      </c>
-      <c r="F12">
-        <v>570</v>
-      </c>
-      <c r="G12">
-        <v>530</v>
-      </c>
-      <c r="H12">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>1700</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>1800</v>
-      </c>
-      <c r="C14">
-        <v>700</v>
-      </c>
-      <c r="D14">
-        <v>650</v>
-      </c>
-      <c r="E14">
-        <v>530</v>
-      </c>
-      <c r="F14">
-        <v>520</v>
-      </c>
-      <c r="G14">
-        <v>460</v>
-      </c>
-      <c r="H14">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <v>2000</v>
-      </c>
-      <c r="C16">
-        <v>650</v>
-      </c>
-      <c r="D16">
-        <v>600</v>
-      </c>
-      <c r="E16">
-        <v>470</v>
-      </c>
-      <c r="F16">
-        <v>460</v>
-      </c>
-      <c r="G16">
+        <v>420</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
         <v>400</v>
       </c>
-      <c r="H16">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>2200</v>
-      </c>
-      <c r="C18">
-        <v>550</v>
-      </c>
-      <c r="D18">
-        <v>500</v>
-      </c>
-      <c r="E18">
-        <v>430</v>
-      </c>
-      <c r="F18">
-        <v>420</v>
-      </c>
-      <c r="G18">
+      <c r="J10">
         <v>380</v>
       </c>
-      <c r="H18">
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="L10">
         <v>370</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+      <c r="O10">
+        <v>30</v>
+      </c>
+      <c r="P10">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>577.79999999999995</v>
+      </c>
+      <c r="R10">
+        <v>395</v>
+      </c>
+      <c r="S10">
+        <v>586.79999999999995</v>
+      </c>
+      <c r="T10">
+        <f>3*(R10-P10)/((S10-Q10)*$N$1)</f>
+        <v>1.0574712643678161</v>
+      </c>
+      <c r="U10">
+        <f>(4/3)*((N10+O10)/(4*$N$1))^3*1000</f>
+        <v>2.8829595309360783</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>